--- a/data/income_statement/1digit/size/F_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/F_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>F-Construction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>F-Construction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>22052181.57263999</v>
+        <v>23780884.99956</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>24568127.17069</v>
+        <v>26605956.21051</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>29886810.02392</v>
+        <v>32088482.30319</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>37696928.11768001</v>
+        <v>40306560.17829</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>44477305.4347</v>
+        <v>47915378.42403</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>53531691.77464</v>
+        <v>57803969.43339</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>60706982.35280001</v>
+        <v>68730764.76372999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>80484665.60325</v>
+        <v>84664255.13695</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>97827251.11051999</v>
+        <v>103442234.05123</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>111194388.74772</v>
+        <v>117832477.85315</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>104090583.84654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>113950661.30378</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>111102432.931</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>20714582.78946</v>
+        <v>22203123.33213</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>23036685.34277</v>
+        <v>24783180.46747</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>28170092.89752</v>
+        <v>30149650.99492</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>35870010.57645</v>
+        <v>38314272.4002</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>41139435.15522</v>
+        <v>44216319.86037</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>49822952.06689</v>
+        <v>53615391.59814999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>57579329.40555</v>
+        <v>65110192.46095</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>75564703.5642</v>
+        <v>79335620.85637002</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>90538816.89014</v>
+        <v>95500576.77952</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>104629254.93405</v>
+        <v>110768489.47705</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>95987579.95538001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>105173867.28749</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>102881080.612</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>888658.3581899999</v>
+        <v>1065500.077</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1102407.86764</v>
+        <v>1333403.77143</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1205938.6513</v>
+        <v>1412839.77889</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1245069.60016</v>
+        <v>1380689.09542</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2551741.58496</v>
+        <v>2809120.42954</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2876459.8327</v>
+        <v>3194127.52986</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2153799.21168</v>
+        <v>2398839.5742</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3486138.841130001</v>
+        <v>3715108.79941</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5414961.017869999</v>
+        <v>5802221.66067</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4477361.36678</v>
+        <v>4811329.46697</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5094108.641360001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5613483.905099999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6119953.595</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>448940.4249900001</v>
+        <v>512261.59043</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>429033.96028</v>
+        <v>489371.97161</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>510778.4751</v>
+        <v>525991.52938</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>581847.9410699999</v>
+        <v>611598.68267</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>786128.6945200001</v>
+        <v>889938.1341200001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>832279.8750499999</v>
+        <v>994450.3053800002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>973853.7355699999</v>
+        <v>1221732.72858</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1433823.19792</v>
+        <v>1613525.48117</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1873473.20251</v>
+        <v>2139435.61104</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2087772.44689</v>
+        <v>2252658.90913</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3008895.2498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3163310.11119</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2101398.724</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>87965.78770999999</v>
+        <v>87457.32515</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>72541.57372</v>
+        <v>87256.65956999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>101243.0559</v>
+        <v>114847.96639</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>142903.38055</v>
+        <v>139789.55852</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>185571.9598</v>
+        <v>129575.35371</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>183966.36863</v>
+        <v>199844.90175</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1393688.35766</v>
+        <v>244814.77639</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2032550.66094</v>
+        <v>2008868.49792</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>604597.3816699999</v>
+        <v>663591.0015599999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>840941.4511299999</v>
+        <v>987043.6462099999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>733884.55836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>747149.99459</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1608042.1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>56520.90472000001</v>
+        <v>62152.58694000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>45995.22678</v>
+        <v>60869.6554</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>73204.92877</v>
+        <v>86981.86537</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>91435.91020999999</v>
+        <v>92763.46187</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>157734.78144</v>
+        <v>103016.16388</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>134169.05492</v>
+        <v>148139.28563</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1341221.42688</v>
+        <v>184100.88116</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1944181.51652</v>
+        <v>1925066.56844</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>501070.92644</v>
+        <v>553936.49751</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>690022.3017899999</v>
+        <v>797421.85117</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>641177.33708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>598955.30652</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1452465.241</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>18323.96793</v>
+        <v>9801.920120000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>17243.1625</v>
+        <v>17148.17691</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>18071.26906</v>
+        <v>19884.04115</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>29224.38602</v>
+        <v>32274.07884</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>15089.12455</v>
+        <v>13693.72636</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>24628.39646</v>
+        <v>26237.2054</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31997.24269</v>
+        <v>34329.60974</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>41654.71029</v>
+        <v>46772.77383</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>58110.40821000001</v>
+        <v>61381.84995</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>71476.02017999999</v>
+        <v>106705.869</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>45639.08514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>71814.85008</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>102479.902</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>13120.91506</v>
+        <v>15502.81809</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>9303.184439999999</v>
+        <v>9238.82726</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>9966.85807</v>
+        <v>7982.05987</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>22243.08432</v>
+        <v>14752.01781</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>12748.05381</v>
+        <v>12865.46347</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>25168.91725</v>
+        <v>25468.41072</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>20469.68809</v>
+        <v>26384.28549</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>46714.43413</v>
+        <v>37029.15565</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>45416.04702000001</v>
+        <v>48272.6541</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>79443.12916</v>
+        <v>82915.92603999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>47068.13614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>76379.83799000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>53096.957</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>21964215.78493</v>
+        <v>23693427.67441</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>24495585.59697</v>
+        <v>26518699.55094</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>29785566.96802</v>
+        <v>31973634.3368</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>37554024.73712999</v>
+        <v>40166770.61977001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>44291733.4749</v>
+        <v>47785803.07032001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>53347725.40601</v>
+        <v>57604124.53164</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>59313293.99514</v>
+        <v>68485949.98733999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>78452114.94230999</v>
+        <v>82655386.63902999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>97222653.72885001</v>
+        <v>102778643.04967</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>110353447.29659</v>
+        <v>116845434.20694</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>103356699.28818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>113203511.30919</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>109494390.831</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>19465359.70488</v>
+        <v>20970725.80397</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>21744981.29332</v>
+        <v>23516682.03124</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26265664.74837</v>
+        <v>28164130.06541</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>33410959.42425</v>
+        <v>35727991.58219</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>39744743.92134</v>
+        <v>43054912.93068</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>47977702.65747001</v>
+        <v>51895612.08761</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>52790544.15929</v>
+        <v>61221044.48169</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>70467815.01710001</v>
+        <v>74271554.64001998</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>87446964.50852001</v>
+        <v>92385498.10153</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>100544175.06664</v>
+        <v>105622079.98589</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>91745855.89693999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>99835488.71195999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>97188788.627</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3162407.7722</v>
+        <v>3227580.3209</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3600679.55129</v>
+        <v>3686948.83384</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4580958.83586</v>
+        <v>4686914.29895</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5920247.400780001</v>
+        <v>6330642.980439999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7986382.61269</v>
+        <v>8056441.65955</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>10068696.09827</v>
+        <v>10400243.48148</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11981622.3792</v>
+        <v>12708866.86133</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>16533550.53713</v>
+        <v>16504047.55113</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>20894595.46581</v>
+        <v>21111411.71381</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24902966.49699</v>
+        <v>25159830.52808</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21041365.49672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21365585.67771</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>20863644.85</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2974950.8654</v>
+        <v>3132137.39946</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3391811.58608</v>
+        <v>3496846.79206</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4656788.85959</v>
+        <v>4873609.17151</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>6121589.88069</v>
+        <v>6135844.028469999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7250650.997400001</v>
+        <v>7519102.806189999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>8200047.6885</v>
+        <v>8373411.963059999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>10453142.82205</v>
+        <v>10948900.08255</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>13967946.80309</v>
+        <v>14121380.9437</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>19019939.58945</v>
+        <v>19281192.66376</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>16060442.64442</v>
+        <v>16278383.1048</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>15894181.32011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16685186.87333</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>20439703.428</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>13212569.54875</v>
+        <v>14475919.93468</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14644164.04657</v>
+        <v>16181179.3268</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16837382.40338</v>
+        <v>18385375.04021</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>21198738.1802</v>
+        <v>23068137.80078</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>24309911.10402</v>
+        <v>27234129.75871</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>29258666.20108</v>
+        <v>32635484.6506</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>29955061.04943</v>
+        <v>37084414.66925</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>39425557.95669</v>
+        <v>43071026.60360999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>46918051.14233</v>
+        <v>51374019.50662</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>58767708.47561</v>
+        <v>63273045.58763</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>54063190.26254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>60970961.49366001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>54622780.083</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>115431.51853</v>
+        <v>135088.14893</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>108326.10938</v>
+        <v>151707.07854</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>190534.64954</v>
+        <v>218231.55474</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>170383.96258</v>
+        <v>193366.7725</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>197799.20723</v>
+        <v>245238.70623</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>450292.66962</v>
+        <v>486471.9924700001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>400717.90861</v>
+        <v>478862.86856</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>540759.72019</v>
+        <v>575099.5415800001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>614378.3109299999</v>
+        <v>618874.2173400001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>813057.44962</v>
+        <v>910820.76538</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>747118.8175700001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>813754.66726</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1262660.266</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2498856.08005</v>
+        <v>2722701.87044</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2750604.30365</v>
+        <v>3002017.5197</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3519902.21965</v>
+        <v>3809504.27139</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4143065.31288</v>
+        <v>4438779.03758</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4546989.553560001</v>
+        <v>4730890.139640001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5370022.748540001</v>
+        <v>5708512.44403</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6522749.83585</v>
+        <v>7264905.505650001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7984299.92521</v>
+        <v>8383831.99901</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9775689.220330002</v>
+        <v>10393144.94814</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9809272.229950001</v>
+        <v>11223354.22105</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11610843.39124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13368022.59723</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12305602.204</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1263021.44694</v>
+        <v>1179208.02629</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1503227.22973</v>
+        <v>1462723.29132</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1996140.0029</v>
+        <v>2009052.4021</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2349355.27061</v>
+        <v>2280095.6444</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2561436.69863</v>
+        <v>2460171.06181</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3053461.80104</v>
+        <v>3098188.47413</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3499856.46118</v>
+        <v>3674963.408789999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4389198.00659</v>
+        <v>4318177.648519999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>5353604.40651</v>
+        <v>5208440.23721</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5585652.171249999</v>
+        <v>5758626.11495</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5580658.4906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6365913.33466</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6170053.356</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>9032.652330000001</v>
+        <v>4566.70492</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>24957.10989</v>
+        <v>20370.91066</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1603.339</v>
+        <v>1824.38266</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6647.389810000001</v>
+        <v>4231.31927</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7446.922579999999</v>
+        <v>10185.57828</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>15792.38047</v>
+        <v>15213.27714</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7956.79052</v>
+        <v>5714.727890000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>17364.58854</v>
+        <v>15546.07561</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>9108.4926</v>
+        <v>11361.93158</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15190.30374</v>
+        <v>11543.12468</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>19263.03876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13360.0265</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13451.431</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>144670.07208</v>
+        <v>159205.70648</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>169381.9769</v>
+        <v>204403.99625</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>261992.42445</v>
+        <v>297265.51294</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>280519.0504600001</v>
+        <v>337920.1421</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>299336.75206</v>
+        <v>319217.87082</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>362371.70998</v>
+        <v>436924.00232</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>399459.97168</v>
+        <v>495943.49523</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>477393.09839</v>
+        <v>556231.2862299999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>688869.70187</v>
+        <v>776558.4102</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>688869.2444</v>
+        <v>824447.1774200001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>733808.3616299999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>827752.34342</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>948345.612</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1109318.72253</v>
+        <v>1015435.61489</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1308888.14294</v>
+        <v>1237948.38441</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1732544.23945</v>
+        <v>1709962.5065</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2062188.83034</v>
+        <v>1937944.18303</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2254653.02399</v>
+        <v>2130767.61271</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2675297.71059</v>
+        <v>2646051.19467</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3092439.69898</v>
+        <v>3173305.18567</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3894440.31966</v>
+        <v>3746400.28668</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4655626.21204</v>
+        <v>4420519.89543</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4881592.623110001</v>
+        <v>4922635.81285</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4827587.09021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5524800.964740001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5208256.313</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1235834.63311</v>
+        <v>1543493.84415</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1247377.07392</v>
+        <v>1539294.22838</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1523762.21675</v>
+        <v>1800451.86929</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1793710.04227</v>
+        <v>2158683.39318</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1985552.85493</v>
+        <v>2270719.07783</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2316560.9475</v>
+        <v>2610323.969899999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3022893.37467</v>
+        <v>3589942.09686</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3595101.918619999</v>
+        <v>4065654.35049</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4422084.81382</v>
+        <v>5184704.710929999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4223620.0587</v>
+        <v>5464728.1061</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6030184.900640001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7002109.262570001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6135548.848</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>678182.07547</v>
+        <v>1280962.16687</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>637412.2707499999</v>
+        <v>1206653.99878</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>791676.20317</v>
+        <v>2001794.9131</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>691863.21424</v>
+        <v>1746434.13762</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1325868.08289</v>
+        <v>1752380.72894</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1284150.39452</v>
+        <v>3933724.56085</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1811044.50032</v>
+        <v>3907819.89942</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2199198.85831</v>
+        <v>4584602.53174</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2095593.50761</v>
+        <v>4191182.86182</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6945259.229919999</v>
+        <v>18434248.45255</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4591024.4581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9545674.11121</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12560423.49</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>60564.99894</v>
+        <v>168096.26852</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>58182.62909</v>
+        <v>225578.38817</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>62184.41665</v>
+        <v>352583.1469200001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>62484.21881000001</v>
+        <v>234237.60986</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>148965.56719</v>
+        <v>153904.54051</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>131087.28385</v>
+        <v>267589.4275399999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>106889.91361</v>
+        <v>160822.33189</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>230737.37573</v>
+        <v>161088.29507</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>202834.86743</v>
+        <v>173238.52576</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>240638.33592</v>
+        <v>465495.49151</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>445236.55316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>716680.0093500001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>416117.387</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>43752.18240999999</v>
+        <v>296980.24493</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>36739.30606</v>
+        <v>56414.18464</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>16649.03154</v>
+        <v>98138.3873</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>28981.88615</v>
+        <v>137376.09522</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>107802.59785</v>
+        <v>110339.93506</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>78312.23602</v>
+        <v>730379.8068100001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>59709.48305</v>
+        <v>272954.77502</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>129891.86503</v>
+        <v>155228.80288</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>91893.5873</v>
+        <v>270899.6888</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>262555.41059</v>
+        <v>612760.2552900001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>245841.05327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>310860.46299</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>312478.958</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>137913.14671</v>
+        <v>157993.61131</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>116169.93675</v>
+        <v>165876.60326</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>135588.79081</v>
+        <v>226715.4645</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>173230.99935</v>
+        <v>290737.04698</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>174243.8235</v>
+        <v>260479.54944</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>234754.99611</v>
+        <v>432329.6433299999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>298114.53236</v>
+        <v>468749.33243</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>318063.12388</v>
+        <v>551509.92606</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>398279.50724</v>
+        <v>705997.0831</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>846425.0580600001</v>
+        <v>1440330.34488</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>870236.82897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1673404.33585</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1139693.886</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3968.813619999999</v>
+        <v>3595.56948</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4205.988789999999</v>
+        <v>2415.15279</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3039.23861</v>
+        <v>3539.95661</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1883.74376</v>
+        <v>4610.109179999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3958.80372</v>
+        <v>3237.60214</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3786.85898</v>
+        <v>3048.63167</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4821.49913</v>
+        <v>9234.456700000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6621.64636</v>
+        <v>8848.652169999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7045.010939999999</v>
+        <v>6704.29101</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>13574.51705</v>
+        <v>25033.11555</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4060.06357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10118.79831</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>25992.255</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7115.578680000001</v>
+        <v>4261.77098</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>15358.58716</v>
+        <v>3724.99227</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>40596.16634</v>
+        <v>3420.02463</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>18855.03749</v>
+        <v>8623.76591</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15586.13559</v>
+        <v>7652.182360000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9614.09469</v>
+        <v>8465.07035</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>14258.93193</v>
+        <v>16578.38904</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>13341.21977</v>
+        <v>14612.13624</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>30656.83336</v>
+        <v>13247.36931</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17060.40487</v>
+        <v>28424.36665</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>40112.66093999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>32221.79385</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>25923.229</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9539.491930000002</v>
+        <v>22879.11475</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>12283.87055</v>
+        <v>12796.28059</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>32679.13998</v>
+        <v>27772.38146</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>10726.31257</v>
+        <v>33584.90711</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>22372.85392</v>
+        <v>19106.70057</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>28720.43748</v>
+        <v>34507.02385000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>32606.10113</v>
+        <v>42223.06462</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>33285.61882</v>
+        <v>18988.92126</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>15629.34027</v>
+        <v>74949.66256</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>64043.74161</v>
+        <v>36439.58219000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>67755.28576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>526697.3789700001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>103903.945</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>236977.06083</v>
+        <v>440925.17217</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>225347.32594</v>
+        <v>523573.22391</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>312746.42847</v>
+        <v>1078774.49739</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>173731.74458</v>
+        <v>789553.66721</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>588053.02604</v>
+        <v>878834.0098400001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>464936.51117</v>
+        <v>1769699.18801</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>956119.46875</v>
+        <v>2509898.73081</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>923618.81627</v>
+        <v>2936868.62981</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>871478.01601</v>
+        <v>2345021.82726</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4713381.67632</v>
+        <v>14369812.59475</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2047074.25116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4930484.384550001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8306974.639</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>12223.69217</v>
+        <v>12483.50628</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>2317.85883</v>
+        <v>4734.95329</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>2348.9959</v>
+        <v>17554.35774</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>954.72496</v>
+        <v>6392.282609999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6781.77554</v>
+        <v>3016.11109</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>4786.60018</v>
+        <v>4559.089599999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3280.90386</v>
+        <v>3197.79495</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2115.56253</v>
+        <v>11337.32701</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2181.43367</v>
+        <v>15120.07249</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>25912.83926</v>
+        <v>144050.05119</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>23623.6651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>38979.77693</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>84832.065</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>36692.71479999999</v>
+        <v>36211.76748</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>41259.70946</v>
+        <v>41198.94003</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1211.8171</v>
+        <v>2100.35759</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>38732.40153</v>
+        <v>38976.39544</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>6676.7143</v>
+        <v>7238.12544</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>445.16177</v>
+        <v>190.48658</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>367.32304</v>
+        <v>895.73157</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>683.32318</v>
+        <v>1235.10325</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>2739.81857</v>
+        <v>1674.7469</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>942.05263</v>
+        <v>421.16363</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1103.938</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>24.05322</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>126.763</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>129434.39538</v>
+        <v>137535.14097</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>125547.05812</v>
+        <v>170341.27983</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>184632.17777</v>
+        <v>191196.3389600001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>182282.14504</v>
+        <v>202342.2581</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>251426.78524</v>
+        <v>308571.97249</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>327706.21427</v>
+        <v>682956.1931099999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>334876.3434600001</v>
+        <v>423265.29239</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>540840.30674</v>
+        <v>724884.7379900001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>472855.0928200001</v>
+        <v>584329.5946299999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>760725.19361</v>
+        <v>1311481.48691</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>845980.15817</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1306203.11719</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2144380.363</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>404391.62729</v>
+        <v>635583.05437</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>337907.7352700001</v>
+        <v>641810.5689</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>486656.17071</v>
+        <v>1371300.59961</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>374536.51408</v>
+        <v>945153.0280899999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>800528.8440899999</v>
+        <v>1373783.25171</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>742803.04625</v>
+        <v>2134449.35304</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1236249.32932</v>
+        <v>3224151.41902</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1414487.34748</v>
+        <v>3807893.40919</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1335186.67952</v>
+        <v>3132949.726130001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6619421.16715</v>
+        <v>17104563.46647</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3158300.11655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8723024.43031</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11630056.956</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4301.31175</v>
+        <v>6515.19012</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5162.59578</v>
+        <v>3792.15457</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6254.67978</v>
+        <v>5046.36864</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5329.630319999999</v>
+        <v>6352.25114</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5086.49641</v>
+        <v>8516.978219999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8610.10923</v>
+        <v>8726.58582</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7608.00767</v>
+        <v>8090.281</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>17703.95673</v>
+        <v>18796.1711</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>12314.08434</v>
+        <v>23840.24571</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>28242.02012999999</v>
+        <v>22701.63556</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13779.75501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16819.43731</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>32878.501</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>34945.92526999999</v>
+        <v>43569.63149</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>14610.55452</v>
+        <v>21977.46642</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>61941.67797</v>
+        <v>36549.10596</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>65324.59627000001</v>
+        <v>61855.74013</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>59799.26257</v>
+        <v>49904.30975</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>72737.38416000002</v>
+        <v>70179.20272</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>70563.84468000001</v>
+        <v>78967.32831</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>77752.29034000001</v>
+        <v>81392.3213</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>86129.1063</v>
+        <v>106589.26725</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>144738.23692</v>
+        <v>189093.29777</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>141373.89868</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>170813.58832</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>111872.661</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>4453.53337</v>
+        <v>14905.36627</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2924.57573</v>
+        <v>7533.04866</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7207.561090000001</v>
+        <v>1691.6372</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2361.20439</v>
+        <v>3362.88158</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>7609.06122</v>
+        <v>26791.09751000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4991.450100000001</v>
+        <v>3932.652199999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>15948.55248</v>
+        <v>36801.65525</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>15995.26664</v>
+        <v>14583.44214</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>4075.23883</v>
+        <v>43197.28358</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>19569.80429</v>
+        <v>31133.10136</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>31358.0354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>9198.53549</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>62053.871</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>230567.38858</v>
+        <v>428325.4400000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>201961.43908</v>
+        <v>482766.1095</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>342851.43706</v>
+        <v>1214928.20193</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>170293.45127</v>
+        <v>711226.3046899999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>612889.46137</v>
+        <v>1144951.52327</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>485021.18961</v>
+        <v>1711379.87216</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>983511.9169900001</v>
+        <v>2781587.584569999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1049075.45445</v>
+        <v>3390634.36662</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1014655.66523</v>
+        <v>2429496.61996</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5907575.56279</v>
+        <v>15697342.91805</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2481196.80236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5358468.26989</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10378693.063</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>7174.840209999999</v>
+        <v>11168.75824</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1308.03021</v>
+        <v>5408.609659999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>554.95586</v>
+        <v>14994.72709</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2460.20642</v>
+        <v>9787.958119999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>5142.30069</v>
+        <v>2439.63565</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>5046.80704</v>
+        <v>22726.7219</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3248.79121</v>
+        <v>3749.53788</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2092.50429</v>
+        <v>11137.02911</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4559.75029</v>
+        <v>14981.49025</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>33405.99745</v>
+        <v>154430.97771</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>21704.41975</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>36754.01940999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>84940.86900000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>46211.54704</v>
+        <v>48025.59544</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>37485.19559</v>
+        <v>37554.10432</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1169.6605</v>
+        <v>2493.88593</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>27505.78114</v>
+        <v>27837.8759</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2798.47836</v>
+        <v>1541.34935</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>920.83206</v>
+        <v>1624.33818</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>212.05097</v>
+        <v>468.91351</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>731.9947900000001</v>
+        <v>751.95865</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>34.98069</v>
+        <v>1.03406</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>889.63836</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>55.08002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.05787</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>76737.08106999999</v>
+        <v>83073.07281</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>74455.34436</v>
+        <v>82779.07577</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>66676.19845</v>
+        <v>95596.67286000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>101261.64427</v>
+        <v>124730.01653</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>107203.78347</v>
+        <v>139638.35796</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>165475.27405</v>
+        <v>315879.98006</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>155156.16532</v>
+        <v>314486.1185</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>251135.88024</v>
+        <v>290598.12027</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>213417.85384</v>
+        <v>514843.78532</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>484999.9072100001</v>
+        <v>1008971.89766</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>468832.12533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3130970.52202</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>959617.991</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>358359.2934100001</v>
+        <v>451629.09802</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>327708.22735</v>
+        <v>401996.04149</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>430316.64871</v>
+        <v>608486.56386</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>579720.65645</v>
+        <v>907870.5980299999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>714041.7585300001</v>
+        <v>922757.71442</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>925307.4055699999</v>
+        <v>1474785.3802</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1289699.99305</v>
+        <v>2173343.39906</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1664670.02513</v>
+        <v>2637638.47756</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2157659.26038</v>
+        <v>3369883.6626</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4143733.49604</v>
+        <v>6939745.06128</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3700221.299420001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6302942.18221</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7767277.898</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>331926.0175000001</v>
+        <v>414398.18804</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>300273.61544</v>
+        <v>364180.2814099999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>399652.79873</v>
+        <v>539057.22763</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>543092.40967</v>
+        <v>795908.7958600001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>657664.8743399999</v>
+        <v>790695.3846399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>841351.4294199999</v>
+        <v>1332206.53808</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1156899.23184</v>
+        <v>1875381.24107</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1522749.67007</v>
+        <v>2313222.26673</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1979953.72418</v>
+        <v>2987278.38278</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3620543.9484</v>
+        <v>6047470.079959999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3330444.20826</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5518281.42117</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6147838.797</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>26433.27591</v>
+        <v>37230.90998</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>27434.61191</v>
+        <v>37815.76008</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>30663.84998</v>
+        <v>69429.33622999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>36628.24678</v>
+        <v>111961.80217</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>56376.88419</v>
+        <v>132062.32978</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>83955.97615</v>
+        <v>142578.84212</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>132800.76121</v>
+        <v>297962.15799</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>141920.35506</v>
+        <v>324416.21083</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>177705.5362</v>
+        <v>382605.27982</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>523189.5476400001</v>
+        <v>892274.9813199999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>369777.09116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>784660.76104</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1619439.101</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1151265.78788</v>
+        <v>1737243.85863</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1219173.38205</v>
+        <v>1702141.61677</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1398465.6005</v>
+        <v>1822459.61892</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1531316.08598</v>
+        <v>2052093.90468</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1796850.3352</v>
+        <v>1726558.84064</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1932600.8902</v>
+        <v>2934813.79751</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2307988.55262</v>
+        <v>2100267.1782</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2715143.40432</v>
+        <v>2204724.99548</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3024832.38153</v>
+        <v>2873054.18402</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>405724.62543</v>
+        <v>-145331.9691000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3762687.942770001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1521816.76126</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-701362.5159999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>194264.29254</v>
+        <v>229963.49136</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>320559.87121</v>
+        <v>353836.98641</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>295097.15562</v>
+        <v>366940.9478000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>325773.75307</v>
+        <v>417023.9644</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>562377.90997</v>
+        <v>446007.16959</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>534963.71194</v>
+        <v>615718.6922800001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>580769.7779000001</v>
+        <v>1056528.09743</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>760066.0473699999</v>
+        <v>1506120.54775</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>816994.1356800001</v>
+        <v>1245098.08941</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1524625.90654</v>
+        <v>1582927.25144</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1584016.96879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4816310.355640001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2061332.027</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>24934.44491</v>
+        <v>33465.34305</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>51687.03812999999</v>
+        <v>62704.09240000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>36111.98962</v>
+        <v>40770.33403</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>40929.84778</v>
+        <v>59554.05359999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>150875.9524</v>
+        <v>80545.40308</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>34545.91483</v>
+        <v>76919.72040000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>47717.36227000001</v>
+        <v>60384.46462</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>44004.31908</v>
+        <v>38058.74808</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>33348.44829</v>
+        <v>108192.32642</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>175223.40133</v>
+        <v>149727.63445</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>94970.55583000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>135431.62508</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>109756.592</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>169329.84763</v>
+        <v>196498.14831</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>268872.8330800001</v>
+        <v>291132.89401</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>258985.166</v>
+        <v>326170.61377</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>284843.90529</v>
+        <v>357469.9108</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>411501.95757</v>
+        <v>365461.76651</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>500417.79711</v>
+        <v>538798.97188</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>533052.4156299999</v>
+        <v>996143.63281</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>716061.7282899999</v>
+        <v>1468061.79967</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>783645.6873900001</v>
+        <v>1136905.76299</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1349402.50521</v>
+        <v>1433199.61699</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1489046.41296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4680878.73056</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1951575.435</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>249195.30652</v>
+        <v>287243.20637</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>257697.17594</v>
+        <v>357394.99024</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1427982.03539</v>
+        <v>1704678.38746</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>377095.45213</v>
+        <v>429471.55282</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>533229.96357</v>
+        <v>485235.62157</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>903066.0024699999</v>
+        <v>966726.95754</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>607021.73393</v>
+        <v>748419.36621</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1427099.03532</v>
+        <v>1460456.5255</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1018312.62411</v>
+        <v>1407253.96072</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2374259.30417</v>
+        <v>2135302.453600001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2472238.51843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2630205.00019</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1354256.148</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>7151.84912</v>
+        <v>7096.4229</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6005.65195</v>
+        <v>11042.06166</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4656.73826</v>
+        <v>4969.896400000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3873.29286</v>
+        <v>10601.1417</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8149.83279</v>
+        <v>7426.91375</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>11069.07605</v>
+        <v>22636.37403</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>15434.75345</v>
+        <v>26861.82594</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>20230.19461</v>
+        <v>41295.99586</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>12505.15339</v>
+        <v>39759.87899</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>42298.27705</v>
+        <v>43079.95775</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>27572.61323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>31392.32779</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>52499.484</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>55030.29872999999</v>
+        <v>67769.43803999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>47432.89597</v>
+        <v>71091.35467</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>49741.05078</v>
+        <v>74621.45052000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>50872.57538</v>
+        <v>75597.81197</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>145195.83355</v>
+        <v>108295.61267</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>60867.45387999999</v>
+        <v>110917.83602</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>80547.04685</v>
+        <v>123967.04864</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>121839.8655</v>
+        <v>118676.91031</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>101908.83456</v>
+        <v>146927.63401</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>337106.8794799999</v>
+        <v>267094.90179</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>182452.08072</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>253828.21183</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>237725.028</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>187013.15867</v>
+        <v>212377.34543</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>204258.62802</v>
+        <v>275261.57391</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1373584.24635</v>
+        <v>1625087.04054</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>322349.58389</v>
+        <v>343272.59915</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>379884.29723</v>
+        <v>369513.0951499999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>831129.4725400001</v>
+        <v>833172.7474899999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>511039.93363</v>
+        <v>597590.4916299999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1285028.97521</v>
+        <v>1300483.61933</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>903898.63616</v>
+        <v>1220566.44772</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1994854.14764</v>
+        <v>1825127.59406</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2262213.82448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2344984.46057</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1064031.636</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1096334.7739</v>
+        <v>1679964.14362</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1282036.07732</v>
+        <v>1698583.61294</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>265580.72073</v>
+        <v>484722.1792599999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1479994.38692</v>
+        <v>2039646.31626</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1825998.2816</v>
+        <v>1687330.38866</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1564498.59967</v>
+        <v>2583805.53225</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2281736.59659</v>
+        <v>2408375.90942</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2048110.41637</v>
+        <v>2250389.01773</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2823513.8931</v>
+        <v>2710898.31271</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-443908.7722</v>
+        <v>-697707.17126</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2874466.39313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3707922.11671</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5713.363</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>253511.53467</v>
+        <v>293944.63778</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>285603.87764</v>
+        <v>326370.25203</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>329089.2333</v>
+        <v>385741.67465</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>368211.5767799999</v>
+        <v>416588.43527</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>434504.48497</v>
+        <v>444843.2476299999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>475677.64696</v>
+        <v>540688.0924300001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>558166.3161899999</v>
+        <v>653363.4536</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>700515.7833299999</v>
+        <v>703952.24709</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>746780.6593300001</v>
+        <v>798563.7588399999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>881443.6613200001</v>
+        <v>1019970.04643</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>913938.05539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1234005.18703</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1099460.068</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>842823.2392300001</v>
+        <v>1386019.50584</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>996432.19968</v>
+        <v>1372213.36091</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-63508.51256999999</v>
+        <v>98980.50460999997</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1111782.81014</v>
+        <v>1623057.88099</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1391493.79663</v>
+        <v>1242487.14103</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1088820.95271</v>
+        <v>2043117.43982</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1723570.2804</v>
+        <v>1755012.45582</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1347594.63304</v>
+        <v>1546436.77064</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2076733.23377</v>
+        <v>1912334.55387</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1325352.43352</v>
+        <v>-1717677.21769</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1960528.33774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2473916.929680001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1093746.705</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4591</v>
+        <v>2816</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5402</v>
+        <v>3229</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6418</v>
+        <v>3977</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7768</v>
+        <v>4813</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6909</v>
+        <v>4649</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7900</v>
+        <v>5241</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8848</v>
+        <v>5860</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>10519</v>
+        <v>6207</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>12192</v>
+        <v>6890</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7048</v>
+        <v>5180</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5910</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3820</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>